--- a/branches/Remove-PM-fields--FIG-57/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
+++ b/branches/Remove-PM-fields--FIG-57/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:42:48+00:00</t>
+    <t>2023-03-03T11:24:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Remove-PM-fields--FIG-57/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
+++ b/branches/Remove-PM-fields--FIG-57/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T11:24:23+00:00</t>
+    <t>2023-03-03T11:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Remove-PM-fields--FIG-57/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
+++ b/branches/Remove-PM-fields--FIG-57/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T11:25:12+00:00</t>
+    <t>2023-03-03T12:48:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
